--- a/Quy trình quản lý khách hàng.xlsx
+++ b/Quy trình quản lý khách hàng.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2089DC44-3498-487D-A07D-BF3DD3E132D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E192340-E320-40BC-967C-9356125CF197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Quy trình đặt hàng." sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Quản trị trang Web</t>
   </si>
@@ -142,13 +143,28 @@
   </si>
   <si>
     <t>Hủy xong phải báo về Mail cho QlyCuaHang.</t>
+  </si>
+  <si>
+    <t>Cài thêm Plugin để hủy đơn hàng.</t>
+  </si>
+  <si>
+    <t>bị lỗi tài khoản</t>
+  </si>
+  <si>
+    <t>Nếu kh Hủy đơn hàng.</t>
+  </si>
+  <si>
+    <t>Phải thông báo về Mail cho phòng kinh doanh</t>
+  </si>
+  <si>
+    <t>đây này, yêu cầu hủy đơn hàng gửi về phòng kinh doanh.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +186,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +210,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,11 +257,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,8 +287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -504,8 +535,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
@@ -513,7 +544,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>1009652</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -528,8 +559,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5934075" y="2847975"/>
-          <a:ext cx="2381252" cy="1162050"/>
+          <a:off x="6238875" y="2847975"/>
+          <a:ext cx="2876552" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -809,6 +840,221 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3B963B-6C03-4C44-AC51-9A349F940A4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343650" y="859156"/>
+          <a:ext cx="1695450" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182D018E-448B-4423-B5E7-C48AFFEC7F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="971550"/>
+          <a:ext cx="1" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA6DC3C-17A0-45DA-818A-539AB40AC278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="1590675"/>
+          <a:ext cx="2219325" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9507560-4F74-4A2E-B0D4-1EF6C1A5D55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="3505200"/>
+          <a:ext cx="11182350" cy="552527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1173,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF58B6E-E2BD-4A0C-97E5-2AFA0FE7C10A}">
-  <dimension ref="B2:S38"/>
+  <dimension ref="B2:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1437,7 @@
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +1445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1213,12 +1459,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
@@ -1229,8 +1475,16 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>37</v>
       </c>
@@ -1238,7 +1492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D11" s="8" t="s">
         <v>36</v>
       </c>
@@ -1249,15 +1503,15 @@
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>34</v>
       </c>
@@ -1269,11 +1523,11 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
@@ -1356,4 +1610,64 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD66C8B-32D9-49C1-B365-D058F23FC927}">
+  <dimension ref="A2:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Quy trình quản lý khách hàng.xlsx
+++ b/Quy trình quản lý khách hàng.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E192340-E320-40BC-967C-9356125CF197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF2814B-DEED-4964-A9F4-648E5226D7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Quản trị trang Web</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>đây này, yêu cầu hủy đơn hàng gửi về phòng kinh doanh.</t>
+  </si>
+  <si>
+    <t>Test lại tiến trình.</t>
+  </si>
+  <si>
+    <t>kh hủy đơn hàng.</t>
+  </si>
+  <si>
+    <t>đã gửi được Mail báo về nhưng muốn thay đổi nội dung Mail.</t>
   </si>
 </sst>
 </file>
@@ -269,6 +278,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,7 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1016,15 +1025,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57227</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1047,7 +1056,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="3505200"/>
+          <a:off x="1123950" y="3648075"/>
           <a:ext cx="11182350" cy="552527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1344,12 +1353,12 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="X6" t="s">
@@ -1357,24 +1366,24 @@
       </c>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="V16" t="s">
@@ -1465,16 +1474,16 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="V8" t="s">
         <v>41</v>
       </c>
@@ -1493,50 +1502,50 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="H11" s="9" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="F14" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1614,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD66C8B-32D9-49C1-B365-D058F23FC927}">
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,12 +1666,25 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Quy trình quản lý khách hàng.xlsx
+++ b/Quy trình quản lý khách hàng.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF2814B-DEED-4964-A9F4-648E5226D7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C84D434-EA4B-49F1-8434-E218E8ED1DB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Quản trị trang Web</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>đã gửi được Mail báo về nhưng muốn thay đổi nội dung Mail.</t>
+  </si>
+  <si>
+    <t>Cần thay đổi nội dung của Mail, tiêu đề Mail</t>
   </si>
 </sst>
 </file>
@@ -271,7 +274,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,6 +299,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1623,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD66C8B-32D9-49C1-B365-D058F23FC927}">
-  <dimension ref="A2:L27"/>
+  <dimension ref="A2:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1642,7 @@
     <col min="12" max="12" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1655,41 +1661,65 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="L16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L15:R16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>